--- a/static/excel/导入模板.xlsx
+++ b/static/excel/导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,10 @@
   </si>
   <si>
     <t>养老缴费截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,9 +696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BJ726"/>
+  <dimension ref="A1:BJ726"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -740,9 +746,12 @@
     <col min="62" max="62" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:62">
+    <row r="1" spans="1:62">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -925,7 +934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="2:62">
+    <row r="2" spans="1:62">
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="U2" s="3"/>
@@ -937,7 +946,7 @@
       <c r="AA2" s="2"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" spans="2:62">
+    <row r="3" spans="1:62">
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
       <c r="U3" s="3"/>
@@ -950,7 +959,7 @@
       <c r="Z3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="2:62">
+    <row r="4" spans="1:62">
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="U4" s="3"/>
@@ -961,7 +970,7 @@
       <c r="Z4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="2:62">
+    <row r="5" spans="1:62">
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="U5" s="3"/>
@@ -972,7 +981,7 @@
       <c r="Z5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="2:62">
+    <row r="6" spans="1:62">
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="U6" s="3"/>
@@ -983,7 +992,7 @@
       <c r="Z6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="2:62">
+    <row r="7" spans="1:62">
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="U7" s="3"/>
@@ -994,7 +1003,7 @@
       <c r="Z7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="2:62">
+    <row r="8" spans="1:62">
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="U8" s="3"/>
@@ -1005,7 +1014,7 @@
       <c r="Z8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="1:62">
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="U9" s="3"/>
@@ -1016,7 +1025,7 @@
       <c r="Z9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="10" spans="2:62">
+    <row r="10" spans="1:62">
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="U10" s="3"/>
@@ -1027,7 +1036,7 @@
       <c r="Z10" s="3"/>
       <c r="AD10" s="3"/>
     </row>
-    <row r="11" spans="2:62">
+    <row r="11" spans="1:62">
       <c r="E11" s="1"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -1037,7 +1046,7 @@
       <c r="Z11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="2:62">
+    <row r="12" spans="1:62">
       <c r="E12" s="1"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1047,7 +1056,7 @@
       <c r="Z12" s="3"/>
       <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="2:62">
+    <row r="13" spans="1:62">
       <c r="E13" s="1"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -1057,7 +1066,7 @@
       <c r="Z13" s="3"/>
       <c r="AD13" s="3"/>
     </row>
-    <row r="14" spans="2:62">
+    <row r="14" spans="1:62">
       <c r="E14" s="1"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1067,7 +1076,7 @@
       <c r="Z14" s="3"/>
       <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="2:62">
+    <row r="15" spans="1:62">
       <c r="E15" s="1"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -1077,7 +1086,7 @@
       <c r="Z15" s="3"/>
       <c r="AD15" s="3"/>
     </row>
-    <row r="16" spans="2:62">
+    <row r="16" spans="1:62">
       <c r="E16" s="1"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
